--- a/Progress Reports/CDC Monthly progress reports/2017/CDC RIF plans - July 2016 to July 2017.xlsx
+++ b/Progress Reports/CDC Monthly progress reports/2017/CDC RIF plans - July 2016 to July 2017.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>KG</t>
   </si>
@@ -229,9 +229,6 @@
     <t>US SEER (Cancer) example data</t>
   </si>
   <si>
-    <t>Background tile download</t>
-  </si>
-  <si>
     <t>UK COA 2011 tiles</t>
   </si>
   <si>
@@ -287,6 +284,12 @@
   </si>
   <si>
     <t>Data loader and middleware handover</t>
+  </si>
+  <si>
+    <t>Code refactoring, testing</t>
+  </si>
+  <si>
+    <t>Background tile download (csache support)</t>
   </si>
 </sst>
 </file>
@@ -371,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -469,47 +472,44 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -857,7 +857,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39:E45"/>
+      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,7 +906,7 @@
         <f>DATE(2016,1,-2)-WEEKDAY(DATE(2016,1,3))+A3*7</f>
         <v>42555</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="36" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -915,7 +915,7 @@
       <c r="E3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="38" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="10"/>
@@ -929,11 +929,11 @@
         <f t="shared" ref="B4:B28" si="0">DATE(2016,1,-2)-WEEKDAY(DATE(2016,1,3))+A4*7</f>
         <v>42562</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="36"/>
       <c r="E4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="37"/>
+      <c r="F4" s="38"/>
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -945,17 +945,17 @@
         <f t="shared" si="0"/>
         <v>42569</v>
       </c>
-      <c r="C5" s="41"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="37"/>
+      <c r="G5" s="38"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
@@ -966,15 +966,15 @@
         <f t="shared" si="0"/>
         <v>42576</v>
       </c>
-      <c r="C6" s="41"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="37"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="38"/>
       <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
@@ -988,19 +988,19 @@
         <f t="shared" si="0"/>
         <v>42583</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="36" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="37"/>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
@@ -1011,13 +1011,13 @@
         <f t="shared" si="0"/>
         <v>42590</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="40"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="37"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="38"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
@@ -1031,16 +1031,16 @@
       <c r="C9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="36" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="37"/>
+      <c r="G9" s="38"/>
     </row>
     <row r="10" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
@@ -1054,12 +1054,12 @@
       <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="41"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="37"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="38"/>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
@@ -1070,10 +1070,10 @@
         <f t="shared" si="0"/>
         <v>42611</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="41"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="5" t="s">
         <v>32</v>
       </c>
@@ -1096,14 +1096,14 @@
         <f t="shared" si="0"/>
         <v>42618</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="36" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="47" t="s">
         <v>33</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -1119,15 +1119,15 @@
         <f t="shared" si="0"/>
         <v>42625</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41" t="s">
+      <c r="D13" s="36"/>
+      <c r="E13" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41" t="s">
+      <c r="F13" s="37"/>
+      <c r="G13" s="36" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1140,13 +1140,13 @@
         <f t="shared" si="0"/>
         <v>42632</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="43" t="s">
+      <c r="C14" s="36"/>
+      <c r="D14" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1160,13 +1160,13 @@
         <f t="shared" si="0"/>
         <v>42639</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
@@ -1177,15 +1177,15 @@
         <f t="shared" si="0"/>
         <v>42646</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="36" t="s">
         <v>48</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
@@ -1196,15 +1196,15 @@
         <f t="shared" si="0"/>
         <v>42653</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41" t="s">
+      <c r="D17" s="37"/>
+      <c r="E17" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
@@ -1215,11 +1215,11 @@
         <f t="shared" si="0"/>
         <v>42660</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="36"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
@@ -1230,11 +1230,11 @@
         <f t="shared" si="0"/>
         <v>42667</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="41"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
@@ -1245,15 +1245,15 @@
         <f t="shared" si="0"/>
         <v>42674</v>
       </c>
-      <c r="C20" s="40"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="16" t="s">
         <v>49</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="38"/>
-      <c r="G20" s="41"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
@@ -1264,15 +1264,15 @@
         <f t="shared" si="0"/>
         <v>42681</v>
       </c>
-      <c r="C21" s="40"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="38"/>
-      <c r="G21" s="41"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="36"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
@@ -1283,12 +1283,12 @@
         <f t="shared" si="0"/>
         <v>42688</v>
       </c>
-      <c r="C22" s="40"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="38"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="39"/>
       <c r="G22" s="19" t="s">
         <v>53</v>
       </c>
@@ -1302,13 +1302,13 @@
         <f t="shared" si="0"/>
         <v>42695</v>
       </c>
-      <c r="C23" s="40"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="41" t="s">
+      <c r="E23" s="37"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="36" t="s">
         <v>51</v>
       </c>
       <c r="H23" s="2" t="s">
@@ -1324,17 +1324,17 @@
         <f t="shared" si="0"/>
         <v>42702</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="36" t="s">
         <v>40</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="38"/>
-      <c r="G24" s="37"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="38"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
@@ -1345,13 +1345,13 @@
         <f t="shared" si="0"/>
         <v>42709</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="37" t="s">
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="38"/>
-      <c r="G25" s="37"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="38"/>
     </row>
     <row r="26" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
@@ -1362,11 +1362,11 @@
         <f t="shared" si="0"/>
         <v>42716</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="37"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="38"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
@@ -1380,10 +1380,10 @@
       <c r="C27" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="38"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
@@ -1394,15 +1394,15 @@
         <f t="shared" si="0"/>
         <v>42730</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
     </row>
     <row r="29" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
@@ -1412,17 +1412,17 @@
         <f t="shared" ref="B29:B60" si="2">DATE(2017,1,-2)-WEEKDAY(DATE(2017,1,3))+A29*7</f>
         <v>42737</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="E29" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="46"/>
-      <c r="G29" s="41" t="s">
+      <c r="F29" s="44"/>
+      <c r="G29" s="36" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1434,11 +1434,11 @@
         <f t="shared" si="2"/>
         <v>42744</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="41"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="36"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
@@ -1448,11 +1448,11 @@
         <f t="shared" si="2"/>
         <v>42751</v>
       </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="41"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="36"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
@@ -1462,11 +1462,11 @@
         <f t="shared" si="2"/>
         <v>42758</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="41"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="36"/>
     </row>
     <row r="33" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
@@ -1476,13 +1476,13 @@
         <f t="shared" si="2"/>
         <v>42765</v>
       </c>
-      <c r="C33" s="41"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="41"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="36"/>
       <c r="H33" s="2" t="s">
         <v>61</v>
       </c>
@@ -1495,13 +1495,13 @@
         <f t="shared" si="2"/>
         <v>42772</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
       <c r="H34" s="26" t="s">
         <v>63</v>
       </c>
@@ -1515,19 +1515,19 @@
         <f t="shared" si="2"/>
         <v>42779</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="36" t="s">
         <v>57</v>
       </c>
       <c r="E35" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="37" t="s">
+      <c r="F35" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="G35" s="42" t="s">
+      <c r="G35" s="43" t="s">
         <v>59</v>
       </c>
       <c r="H35" s="23" t="s">
@@ -1543,13 +1543,13 @@
         <f t="shared" si="2"/>
         <v>42786</v>
       </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="F36" s="37"/>
-      <c r="G36" s="42"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="38"/>
+      <c r="G36" s="43"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
@@ -1562,12 +1562,12 @@
       <c r="C37" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37" t="s">
+      <c r="D37" s="36"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="42"/>
+      <c r="G37" s="43"/>
       <c r="H37" t="s">
         <v>60</v>
       </c>
@@ -1580,15 +1580,15 @@
         <f t="shared" si="2"/>
         <v>42800</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="40"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="42"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="43"/>
       <c r="H38" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1599,16 +1599,17 @@
         <f t="shared" si="2"/>
         <v>42807</v>
       </c>
-      <c r="C39" s="41" t="s">
-        <v>89</v>
+      <c r="C39" s="36" t="s">
+        <v>88</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="G39" s="42"/>
+        <v>77</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" s="39"/>
+      <c r="G39" s="43"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
@@ -1618,15 +1619,17 @@
         <f t="shared" si="2"/>
         <v>42814</v>
       </c>
-      <c r="C40" s="41"/>
-      <c r="D40" s="45" t="s">
+      <c r="C40" s="36"/>
+      <c r="D40" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="38"/>
-      <c r="F40" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="G40" s="42"/>
+      <c r="E40" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="F40" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40" s="43"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
@@ -1636,13 +1639,13 @@
         <f t="shared" si="2"/>
         <v>42821</v>
       </c>
-      <c r="C41" s="41" t="s">
+      <c r="C41" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="41"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="42"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="43"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
@@ -1652,15 +1655,17 @@
         <f t="shared" si="2"/>
         <v>42828</v>
       </c>
-      <c r="C42" s="40"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="34" t="s">
+      <c r="C42" s="37"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="G42" s="42"/>
+      <c r="F42" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" s="43"/>
       <c r="H42" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -1671,10 +1676,10 @@
         <f t="shared" si="2"/>
         <v>42835</v>
       </c>
-      <c r="C43" s="40"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="35"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
       <c r="G43" s="24"/>
       <c r="H43" s="2" t="s">
         <v>68</v>
@@ -1688,12 +1693,12 @@
         <f t="shared" si="2"/>
         <v>42842</v>
       </c>
-      <c r="C44" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="35"/>
+      <c r="C44" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="36"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
       <c r="G44" s="24"/>
       <c r="H44" s="2"/>
     </row>
@@ -1705,10 +1710,10 @@
         <f t="shared" si="2"/>
         <v>42849</v>
       </c>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="35"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
       <c r="G45" s="24"/>
       <c r="H45" s="26" t="s">
         <v>64</v>
@@ -1723,16 +1728,16 @@
         <v>42856</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" s="41"/>
-      <c r="E46" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="F46" s="38"/>
+        <v>79</v>
+      </c>
+      <c r="D46" s="36"/>
+      <c r="E46" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" s="39"/>
       <c r="G46" s="24"/>
       <c r="H46" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -1743,14 +1748,14 @@
         <f t="shared" si="2"/>
         <v>42863</v>
       </c>
-      <c r="C47" s="41" t="s">
-        <v>71</v>
+      <c r="C47" s="36" t="s">
+        <v>91</v>
       </c>
       <c r="D47" s="29"/>
-      <c r="E47" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="F47" s="37"/>
+      <c r="E47" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="F47" s="38"/>
       <c r="G47" s="28"/>
       <c r="H47" s="26"/>
     </row>
@@ -1762,10 +1767,10 @@
         <f t="shared" si="2"/>
         <v>42870</v>
       </c>
-      <c r="C48" s="41"/>
+      <c r="C48" s="36"/>
       <c r="D48" s="29"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
       <c r="G48" s="28"/>
       <c r="H48" s="26"/>
     </row>
@@ -1777,12 +1782,12 @@
         <f t="shared" si="2"/>
         <v>42877</v>
       </c>
-      <c r="C49" s="41" t="s">
-        <v>72</v>
+      <c r="C49" s="36" t="s">
+        <v>71</v>
       </c>
       <c r="D49" s="29"/>
-      <c r="E49" s="37" t="s">
-        <v>84</v>
+      <c r="E49" s="38" t="s">
+        <v>86</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="28"/>
@@ -1796,9 +1801,9 @@
         <f t="shared" si="2"/>
         <v>42884</v>
       </c>
-      <c r="C50" s="41"/>
+      <c r="C50" s="36"/>
       <c r="D50" s="29"/>
-      <c r="E50" s="37"/>
+      <c r="E50" s="38"/>
       <c r="F50" s="8"/>
       <c r="G50" s="28"/>
       <c r="H50" s="26"/>
@@ -1811,9 +1816,9 @@
         <f t="shared" si="2"/>
         <v>42891</v>
       </c>
-      <c r="C51" s="41"/>
+      <c r="C51" s="36"/>
       <c r="D51" s="29"/>
-      <c r="E51" s="37"/>
+      <c r="E51" s="38"/>
       <c r="F51" s="8"/>
       <c r="G51" s="28"/>
       <c r="H51" s="26"/>
@@ -1827,14 +1832,14 @@
         <v>42898</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D52" s="29"/>
       <c r="E52" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F52" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G52" s="28"/>
       <c r="H52" s="26"/>
@@ -1847,12 +1852,12 @@
         <f t="shared" si="2"/>
         <v>42905</v>
       </c>
-      <c r="C53" s="37" t="s">
-        <v>74</v>
+      <c r="C53" s="38" t="s">
+        <v>73</v>
       </c>
       <c r="D53" s="29"/>
-      <c r="E53" s="37" t="s">
-        <v>74</v>
+      <c r="E53" s="38" t="s">
+        <v>73</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="28"/>
@@ -1866,9 +1871,9 @@
         <f t="shared" si="2"/>
         <v>42912</v>
       </c>
-      <c r="C54" s="38"/>
+      <c r="C54" s="39"/>
       <c r="D54" s="29"/>
-      <c r="E54" s="38"/>
+      <c r="E54" s="39"/>
       <c r="F54" s="8"/>
       <c r="G54" s="28"/>
       <c r="H54" s="26"/>
@@ -1886,12 +1891,12 @@
       </c>
       <c r="D55" s="29"/>
       <c r="E55" s="8"/>
-      <c r="F55" s="37" t="s">
-        <v>76</v>
+      <c r="F55" s="38" t="s">
+        <v>75</v>
       </c>
       <c r="G55" s="28"/>
       <c r="H55" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -1902,12 +1907,12 @@
         <f t="shared" si="2"/>
         <v>42926</v>
       </c>
-      <c r="C56" s="48" t="s">
-        <v>77</v>
+      <c r="C56" s="40" t="s">
+        <v>76</v>
       </c>
       <c r="D56" s="29"/>
       <c r="E56" s="30"/>
-      <c r="F56" s="38"/>
+      <c r="F56" s="39"/>
       <c r="G56" s="28"/>
       <c r="H56" s="26"/>
     </row>
@@ -1919,12 +1924,12 @@
         <f t="shared" si="2"/>
         <v>42933</v>
       </c>
-      <c r="C57" s="41"/>
+      <c r="C57" s="36"/>
       <c r="D57" s="29"/>
-      <c r="E57" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="F57" s="37"/>
+      <c r="E57" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="F57" s="38"/>
       <c r="G57" s="28"/>
       <c r="H57" s="26"/>
     </row>
@@ -1936,10 +1941,10 @@
         <f t="shared" si="2"/>
         <v>42940</v>
       </c>
-      <c r="C58" s="41"/>
+      <c r="C58" s="36"/>
       <c r="D58" s="29"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
       <c r="G58" s="28"/>
       <c r="H58" s="26"/>
     </row>
@@ -1951,12 +1956,12 @@
         <f t="shared" si="2"/>
         <v>42947</v>
       </c>
-      <c r="C59" s="41"/>
+      <c r="C59" s="36"/>
       <c r="D59" s="29"/>
-      <c r="E59" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="F59" s="37"/>
+      <c r="E59" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="F59" s="38"/>
       <c r="G59" s="28"/>
       <c r="H59" s="26"/>
     </row>
@@ -1968,13 +1973,13 @@
         <f t="shared" si="2"/>
         <v>42954</v>
       </c>
-      <c r="C60" s="41"/>
+      <c r="C60" s="36"/>
       <c r="D60" s="29"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
       <c r="G60" s="28"/>
       <c r="H60" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -1989,40 +1994,21 @@
         <v>28</v>
       </c>
       <c r="H62" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="E59:F60"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="G35:G42"/>
-    <mergeCell ref="E29:F33"/>
-    <mergeCell ref="D40:D46"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D24:D27"/>
+  <mergeCells count="56">
+    <mergeCell ref="E57:F58"/>
+    <mergeCell ref="G5:G10"/>
+    <mergeCell ref="F12:F27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="F9:F10"/>
@@ -2039,14 +2025,36 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="E59:F60"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G35:G42"/>
+    <mergeCell ref="E29:F33"/>
+    <mergeCell ref="D40:D46"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C53:C54"/>
     <mergeCell ref="E47:F48"/>
     <mergeCell ref="E49:E51"/>
-    <mergeCell ref="E57:F58"/>
-    <mergeCell ref="G5:G10"/>
-    <mergeCell ref="F12:F27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E39:E45"/>
-    <mergeCell ref="E36:E38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C56" r:id="rId1" location="T118_F11063:8283_x405158_y123863_s15_b4"/>

--- a/Progress Reports/CDC Monthly progress reports/2017/CDC RIF plans - July 2016 to July 2017.xlsx
+++ b/Progress Reports/CDC Monthly progress reports/2017/CDC RIF plans - July 2016 to July 2017.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>KG</t>
   </si>
@@ -262,15 +262,9 @@
     <t>CDC sandbox ready</t>
   </si>
   <si>
-    <t>Risk analysis sstaitical requirements</t>
-  </si>
-  <si>
     <t>Risk analysis area selection</t>
   </si>
   <si>
-    <t>Risk aanlysis R scripts</t>
-  </si>
-  <si>
     <t>Risk analysis integration</t>
   </si>
   <si>
@@ -289,7 +283,13 @@
     <t>Code refactoring, testing</t>
   </si>
   <si>
-    <t>Background tile download (csache support)</t>
+    <t>Background tile download (cache support)</t>
+  </si>
+  <si>
+    <t>Risk analysis statistical requirements</t>
+  </si>
+  <si>
+    <t>Risk ansalysis R scripts</t>
   </si>
 </sst>
 </file>
@@ -478,16 +478,25 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -497,19 +506,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -856,8 +856,8 @@
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E59" sqref="E59:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,7 +906,7 @@
         <f>DATE(2016,1,-2)-WEEKDAY(DATE(2016,1,3))+A3*7</f>
         <v>42555</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="40" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -915,7 +915,7 @@
       <c r="E3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="36" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="10"/>
@@ -929,11 +929,11 @@
         <f t="shared" ref="B4:B28" si="0">DATE(2016,1,-2)-WEEKDAY(DATE(2016,1,3))+A4*7</f>
         <v>42562</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="40"/>
       <c r="E4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="38"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -945,17 +945,17 @@
         <f t="shared" si="0"/>
         <v>42569</v>
       </c>
-      <c r="C5" s="36"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="38"/>
+      <c r="G5" s="36"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
@@ -966,15 +966,15 @@
         <f t="shared" si="0"/>
         <v>42576</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="38"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
@@ -988,19 +988,19 @@
         <f t="shared" si="0"/>
         <v>42583</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="40" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="38"/>
+      <c r="G7" s="36"/>
     </row>
     <row r="8" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
@@ -1011,13 +1011,13 @@
         <f t="shared" si="0"/>
         <v>42590</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="17" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="39"/>
-      <c r="G8" s="38"/>
+      <c r="G8" s="36"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
@@ -1031,16 +1031,16 @@
       <c r="C9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="40" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="38"/>
+      <c r="G9" s="36"/>
     </row>
     <row r="10" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
@@ -1054,12 +1054,12 @@
       <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="38"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="36"/>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
@@ -1070,10 +1070,10 @@
         <f t="shared" si="0"/>
         <v>42611</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="5" t="s">
         <v>32</v>
       </c>
@@ -1096,14 +1096,14 @@
         <f t="shared" si="0"/>
         <v>42618</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="36" t="s">
+      <c r="C12" s="38"/>
+      <c r="D12" s="40" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="37" t="s">
         <v>33</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -1119,15 +1119,15 @@
         <f t="shared" si="0"/>
         <v>42625</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36" t="s">
+      <c r="D13" s="40"/>
+      <c r="E13" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="36" t="s">
+      <c r="F13" s="38"/>
+      <c r="G13" s="40" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1140,13 +1140,13 @@
         <f t="shared" si="0"/>
         <v>42632</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="46" t="s">
+      <c r="C14" s="40"/>
+      <c r="D14" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="36"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="40"/>
       <c r="H14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1160,13 +1160,13 @@
         <f t="shared" si="0"/>
         <v>42639</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="36"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
@@ -1177,15 +1177,15 @@
         <f t="shared" si="0"/>
         <v>42646</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36" t="s">
+      <c r="C16" s="40"/>
+      <c r="D16" s="40" t="s">
         <v>48</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="36"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
@@ -1196,15 +1196,15 @@
         <f t="shared" si="0"/>
         <v>42653</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="36" t="s">
+      <c r="D17" s="38"/>
+      <c r="E17" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="36"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="40"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
@@ -1215,11 +1215,11 @@
         <f t="shared" si="0"/>
         <v>42660</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="36"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
@@ -1230,11 +1230,11 @@
         <f t="shared" si="0"/>
         <v>42667</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="36"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="40"/>
     </row>
     <row r="20" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
@@ -1245,7 +1245,7 @@
         <f t="shared" si="0"/>
         <v>42674</v>
       </c>
-      <c r="C20" s="37"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="16" t="s">
         <v>49</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>21</v>
       </c>
       <c r="F20" s="39"/>
-      <c r="G20" s="36"/>
+      <c r="G20" s="40"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
@@ -1264,15 +1264,15 @@
         <f t="shared" si="0"/>
         <v>42681</v>
       </c>
-      <c r="C21" s="37"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="40" t="s">
         <v>50</v>
       </c>
       <c r="F21" s="39"/>
-      <c r="G21" s="36"/>
+      <c r="G21" s="40"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
@@ -1283,11 +1283,11 @@
         <f t="shared" si="0"/>
         <v>42688</v>
       </c>
-      <c r="C22" s="37"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="36"/>
+      <c r="E22" s="40"/>
       <c r="F22" s="39"/>
       <c r="G22" s="19" t="s">
         <v>53</v>
@@ -1302,13 +1302,13 @@
         <f t="shared" si="0"/>
         <v>42695</v>
       </c>
-      <c r="C23" s="37"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="37"/>
+      <c r="E23" s="38"/>
       <c r="F23" s="39"/>
-      <c r="G23" s="36" t="s">
+      <c r="G23" s="40" t="s">
         <v>51</v>
       </c>
       <c r="H23" s="2" t="s">
@@ -1324,17 +1324,17 @@
         <f t="shared" si="0"/>
         <v>42702</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="40" t="s">
         <v>40</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>21</v>
       </c>
       <c r="F24" s="39"/>
-      <c r="G24" s="38"/>
+      <c r="G24" s="36"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
@@ -1345,13 +1345,13 @@
         <f t="shared" si="0"/>
         <v>42709</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38" t="s">
+      <c r="C25" s="40"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="36" t="s">
         <v>55</v>
       </c>
       <c r="F25" s="39"/>
-      <c r="G25" s="38"/>
+      <c r="G25" s="36"/>
     </row>
     <row r="26" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
@@ -1362,11 +1362,11 @@
         <f t="shared" si="0"/>
         <v>42716</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="36"/>
       <c r="F26" s="39"/>
-      <c r="G26" s="38"/>
+      <c r="G26" s="36"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
@@ -1380,10 +1380,10 @@
       <c r="C27" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="36"/>
       <c r="F27" s="39"/>
-      <c r="G27" s="38"/>
+      <c r="G27" s="36"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
@@ -1394,15 +1394,15 @@
         <f t="shared" si="0"/>
         <v>42730</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
     </row>
     <row r="29" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
@@ -1412,17 +1412,17 @@
         <f t="shared" ref="B29:B60" si="2">DATE(2017,1,-2)-WEEKDAY(DATE(2017,1,3))+A29*7</f>
         <v>42737</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="E29" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="44"/>
-      <c r="G29" s="36" t="s">
+      <c r="F29" s="46"/>
+      <c r="G29" s="40" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1434,11 +1434,11 @@
         <f t="shared" si="2"/>
         <v>42744</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="36"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="40"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
@@ -1448,11 +1448,11 @@
         <f t="shared" si="2"/>
         <v>42751</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="36"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="40"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
@@ -1462,11 +1462,11 @@
         <f t="shared" si="2"/>
         <v>42758</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="36"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="40"/>
     </row>
     <row r="33" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
@@ -1476,13 +1476,13 @@
         <f t="shared" si="2"/>
         <v>42765</v>
       </c>
-      <c r="C33" s="36"/>
+      <c r="C33" s="40"/>
       <c r="D33" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="36"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="40"/>
       <c r="H33" s="2" t="s">
         <v>61</v>
       </c>
@@ -1495,13 +1495,13 @@
         <f t="shared" si="2"/>
         <v>42772</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
       <c r="H34" s="26" t="s">
         <v>63</v>
       </c>
@@ -1515,19 +1515,19 @@
         <f t="shared" si="2"/>
         <v>42779</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="40" t="s">
         <v>57</v>
       </c>
       <c r="E35" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="38" t="s">
+      <c r="F35" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="G35" s="43" t="s">
+      <c r="G35" s="41" t="s">
         <v>59</v>
       </c>
       <c r="H35" s="23" t="s">
@@ -1543,13 +1543,13 @@
         <f t="shared" si="2"/>
         <v>42786</v>
       </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="F36" s="38"/>
-      <c r="G36" s="43"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" s="36"/>
+      <c r="G36" s="41"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
@@ -1562,12 +1562,12 @@
       <c r="C37" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="36"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38" t="s">
+      <c r="D37" s="40"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="43"/>
+      <c r="G37" s="41"/>
       <c r="H37" t="s">
         <v>60</v>
       </c>
@@ -1583,12 +1583,12 @@
       <c r="C38" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="32" t="s">
-        <v>80</v>
+      <c r="D38" s="38"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="41"/>
+      <c r="H38" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1599,17 +1599,20 @@
         <f t="shared" si="2"/>
         <v>42807</v>
       </c>
-      <c r="C39" s="36" t="s">
-        <v>88</v>
+      <c r="C39" s="40" t="s">
+        <v>86</v>
       </c>
       <c r="D39" s="25" t="s">
         <v>77</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F39" s="39"/>
-      <c r="G39" s="43"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="32" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
@@ -1619,17 +1622,17 @@
         <f t="shared" si="2"/>
         <v>42814</v>
       </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="42" t="s">
+      <c r="C40" s="40"/>
+      <c r="D40" s="45" t="s">
         <v>67</v>
       </c>
       <c r="E40" s="39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F40" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="G40" s="43"/>
+        <v>87</v>
+      </c>
+      <c r="G40" s="41"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
@@ -1639,13 +1642,13 @@
         <f t="shared" si="2"/>
         <v>42821</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="36"/>
+      <c r="D41" s="40"/>
       <c r="E41" s="39"/>
       <c r="F41" s="39"/>
-      <c r="G41" s="43"/>
+      <c r="G41" s="41"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
@@ -1655,15 +1658,15 @@
         <f t="shared" si="2"/>
         <v>42828</v>
       </c>
-      <c r="C42" s="37"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="38" t="s">
+      <c r="C42" s="38"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="F42" s="38" t="s">
+      <c r="F42" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="G42" s="43"/>
+      <c r="G42" s="41"/>
       <c r="H42" s="32" t="s">
         <v>81</v>
       </c>
@@ -1676,8 +1679,8 @@
         <f t="shared" si="2"/>
         <v>42835</v>
       </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="36"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="40"/>
       <c r="E43" s="39"/>
       <c r="F43" s="39"/>
       <c r="G43" s="24"/>
@@ -1693,10 +1696,10 @@
         <f t="shared" si="2"/>
         <v>42842</v>
       </c>
-      <c r="C44" s="36" t="s">
+      <c r="C44" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="36"/>
+      <c r="D44" s="40"/>
       <c r="E44" s="39"/>
       <c r="F44" s="39"/>
       <c r="G44" s="24"/>
@@ -1710,8 +1713,8 @@
         <f t="shared" si="2"/>
         <v>42849</v>
       </c>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
       <c r="E45" s="39"/>
       <c r="F45" s="39"/>
       <c r="G45" s="24"/>
@@ -1730,8 +1733,8 @@
       <c r="C46" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="36"/>
-      <c r="E46" s="45" t="s">
+      <c r="D46" s="40"/>
+      <c r="E46" s="47" t="s">
         <v>79</v>
       </c>
       <c r="F46" s="39"/>
@@ -1748,14 +1751,14 @@
         <f t="shared" si="2"/>
         <v>42863</v>
       </c>
-      <c r="C47" s="36" t="s">
-        <v>91</v>
+      <c r="C47" s="40" t="s">
+        <v>89</v>
       </c>
       <c r="D47" s="29"/>
-      <c r="E47" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="F47" s="38"/>
+      <c r="E47" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" s="36"/>
       <c r="G47" s="28"/>
       <c r="H47" s="26"/>
     </row>
@@ -1767,10 +1770,10 @@
         <f t="shared" si="2"/>
         <v>42870</v>
       </c>
-      <c r="C48" s="36"/>
+      <c r="C48" s="40"/>
       <c r="D48" s="29"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
       <c r="G48" s="28"/>
       <c r="H48" s="26"/>
     </row>
@@ -1782,12 +1785,12 @@
         <f t="shared" si="2"/>
         <v>42877</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="40" t="s">
         <v>71</v>
       </c>
       <c r="D49" s="29"/>
-      <c r="E49" s="38" t="s">
-        <v>86</v>
+      <c r="E49" s="36" t="s">
+        <v>84</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="28"/>
@@ -1801,9 +1804,9 @@
         <f t="shared" si="2"/>
         <v>42884</v>
       </c>
-      <c r="C50" s="36"/>
+      <c r="C50" s="40"/>
       <c r="D50" s="29"/>
-      <c r="E50" s="38"/>
+      <c r="E50" s="36"/>
       <c r="F50" s="8"/>
       <c r="G50" s="28"/>
       <c r="H50" s="26"/>
@@ -1816,9 +1819,9 @@
         <f t="shared" si="2"/>
         <v>42891</v>
       </c>
-      <c r="C51" s="36"/>
+      <c r="C51" s="40"/>
       <c r="D51" s="29"/>
-      <c r="E51" s="38"/>
+      <c r="E51" s="36"/>
       <c r="F51" s="8"/>
       <c r="G51" s="28"/>
       <c r="H51" s="26"/>
@@ -1852,11 +1855,11 @@
         <f t="shared" si="2"/>
         <v>42905</v>
       </c>
-      <c r="C53" s="38" t="s">
+      <c r="C53" s="36" t="s">
         <v>73</v>
       </c>
       <c r="D53" s="29"/>
-      <c r="E53" s="38" t="s">
+      <c r="E53" s="36" t="s">
         <v>73</v>
       </c>
       <c r="F53" s="8"/>
@@ -1891,7 +1894,7 @@
       </c>
       <c r="D55" s="29"/>
       <c r="E55" s="8"/>
-      <c r="F55" s="38" t="s">
+      <c r="F55" s="36" t="s">
         <v>75</v>
       </c>
       <c r="G55" s="28"/>
@@ -1907,7 +1910,7 @@
         <f t="shared" si="2"/>
         <v>42926</v>
       </c>
-      <c r="C56" s="40" t="s">
+      <c r="C56" s="43" t="s">
         <v>76</v>
       </c>
       <c r="D56" s="29"/>
@@ -1924,12 +1927,12 @@
         <f t="shared" si="2"/>
         <v>42933</v>
       </c>
-      <c r="C57" s="36"/>
+      <c r="C57" s="40"/>
       <c r="D57" s="29"/>
-      <c r="E57" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="F57" s="38"/>
+      <c r="E57" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="F57" s="36"/>
       <c r="G57" s="28"/>
       <c r="H57" s="26"/>
     </row>
@@ -1941,10 +1944,10 @@
         <f t="shared" si="2"/>
         <v>42940</v>
       </c>
-      <c r="C58" s="36"/>
+      <c r="C58" s="40"/>
       <c r="D58" s="29"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
       <c r="G58" s="28"/>
       <c r="H58" s="26"/>
     </row>
@@ -1956,12 +1959,12 @@
         <f t="shared" si="2"/>
         <v>42947</v>
       </c>
-      <c r="C59" s="36"/>
+      <c r="C59" s="40"/>
       <c r="D59" s="29"/>
-      <c r="E59" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="F59" s="38"/>
+      <c r="E59" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="F59" s="36"/>
       <c r="G59" s="28"/>
       <c r="H59" s="26"/>
     </row>
@@ -1973,13 +1976,13 @@
         <f t="shared" si="2"/>
         <v>42954</v>
       </c>
-      <c r="C60" s="36"/>
+      <c r="C60" s="40"/>
       <c r="D60" s="29"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
       <c r="G60" s="28"/>
       <c r="H60" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -1994,21 +1997,40 @@
         <v>28</v>
       </c>
       <c r="H62" s="32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="E57:F58"/>
-    <mergeCell ref="G5:G10"/>
-    <mergeCell ref="F12:F27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E47:F48"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="E59:F60"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G35:G42"/>
+    <mergeCell ref="E29:F33"/>
+    <mergeCell ref="D40:D46"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D24:D27"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="F9:F10"/>
@@ -2025,36 +2047,17 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E57:F58"/>
+    <mergeCell ref="G5:G10"/>
+    <mergeCell ref="F12:F27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
     <mergeCell ref="F55:F56"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="E59:F60"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="G35:G42"/>
-    <mergeCell ref="E29:F33"/>
-    <mergeCell ref="D40:D46"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E47:F48"/>
-    <mergeCell ref="E49:E51"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C56" r:id="rId1" location="T118_F11063:8283_x405158_y123863_s15_b4"/>

--- a/Progress Reports/CDC Monthly progress reports/2017/CDC RIF plans - July 2016 to July 2017.xlsx
+++ b/Progress Reports/CDC Monthly progress reports/2017/CDC RIF plans - July 2016 to July 2017.xlsx
@@ -478,38 +478,38 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -856,8 +856,8 @@
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E59" sqref="E59:F60"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,7 +906,7 @@
         <f>DATE(2016,1,-2)-WEEKDAY(DATE(2016,1,3))+A3*7</f>
         <v>42555</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="36" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -915,7 +915,7 @@
       <c r="E3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="37" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="10"/>
@@ -929,11 +929,11 @@
         <f t="shared" ref="B4:B28" si="0">DATE(2016,1,-2)-WEEKDAY(DATE(2016,1,3))+A4*7</f>
         <v>42562</v>
       </c>
-      <c r="C4" s="40"/>
+      <c r="C4" s="36"/>
       <c r="E4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="36"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -945,17 +945,17 @@
         <f t="shared" si="0"/>
         <v>42569</v>
       </c>
-      <c r="C5" s="40"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="36"/>
+      <c r="G5" s="37"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
@@ -966,15 +966,15 @@
         <f t="shared" si="0"/>
         <v>42576</v>
       </c>
-      <c r="C6" s="40"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="36"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="37"/>
       <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
@@ -988,19 +988,19 @@
         <f t="shared" si="0"/>
         <v>42583</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="36" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="36"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
@@ -1011,13 +1011,13 @@
         <f t="shared" si="0"/>
         <v>42590</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="36"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="37"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
@@ -1031,16 +1031,16 @@
       <c r="C9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="36" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="36"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
@@ -1054,12 +1054,12 @@
       <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="40"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="36"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="37"/>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
@@ -1070,10 +1070,10 @@
         <f t="shared" si="0"/>
         <v>42611</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="40"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="5" t="s">
         <v>32</v>
       </c>
@@ -1096,14 +1096,14 @@
         <f t="shared" si="0"/>
         <v>42618</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="40" t="s">
+      <c r="C12" s="44"/>
+      <c r="D12" s="36" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="47" t="s">
         <v>33</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -1119,15 +1119,15 @@
         <f t="shared" si="0"/>
         <v>42625</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40" t="s">
+      <c r="D13" s="36"/>
+      <c r="E13" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="40" t="s">
+      <c r="F13" s="44"/>
+      <c r="G13" s="36" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1140,13 +1140,13 @@
         <f t="shared" si="0"/>
         <v>42632</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="42" t="s">
+      <c r="C14" s="36"/>
+      <c r="D14" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="40"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1160,13 +1160,13 @@
         <f t="shared" si="0"/>
         <v>42639</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="40"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
@@ -1177,15 +1177,15 @@
         <f t="shared" si="0"/>
         <v>42646</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="36" t="s">
         <v>48</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="40"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
@@ -1196,15 +1196,15 @@
         <f t="shared" si="0"/>
         <v>42653</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="40" t="s">
+      <c r="D17" s="44"/>
+      <c r="E17" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="40"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
@@ -1215,11 +1215,11 @@
         <f t="shared" si="0"/>
         <v>42660</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="40"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="36"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
@@ -1230,11 +1230,11 @@
         <f t="shared" si="0"/>
         <v>42667</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="40"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
@@ -1245,15 +1245,15 @@
         <f t="shared" si="0"/>
         <v>42674</v>
       </c>
-      <c r="C20" s="38"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="16" t="s">
         <v>49</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
@@ -1264,15 +1264,15 @@
         <f t="shared" si="0"/>
         <v>42681</v>
       </c>
-      <c r="C21" s="38"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="36"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
@@ -1283,12 +1283,12 @@
         <f t="shared" si="0"/>
         <v>42688</v>
       </c>
-      <c r="C22" s="38"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="39"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="38"/>
       <c r="G22" s="19" t="s">
         <v>53</v>
       </c>
@@ -1302,13 +1302,13 @@
         <f t="shared" si="0"/>
         <v>42695</v>
       </c>
-      <c r="C23" s="38"/>
+      <c r="C23" s="44"/>
       <c r="D23" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40" t="s">
+      <c r="E23" s="44"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="36" t="s">
         <v>51</v>
       </c>
       <c r="H23" s="2" t="s">
@@ -1324,17 +1324,17 @@
         <f t="shared" si="0"/>
         <v>42702</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="D24" s="36" t="s">
         <v>40</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="39"/>
-      <c r="G24" s="36"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="37"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
@@ -1345,13 +1345,13 @@
         <f t="shared" si="0"/>
         <v>42709</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="36" t="s">
+      <c r="C25" s="36"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="36"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="37"/>
     </row>
     <row r="26" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
@@ -1362,11 +1362,11 @@
         <f t="shared" si="0"/>
         <v>42716</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="37"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
@@ -1380,10 +1380,10 @@
       <c r="C27" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="36"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="37"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
@@ -1394,15 +1394,15 @@
         <f t="shared" si="0"/>
         <v>42730</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
     </row>
     <row r="29" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
@@ -1412,17 +1412,17 @@
         <f t="shared" ref="B29:B60" si="2">DATE(2017,1,-2)-WEEKDAY(DATE(2017,1,3))+A29*7</f>
         <v>42737</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="D29" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="46"/>
-      <c r="G29" s="40" t="s">
+      <c r="F29" s="43"/>
+      <c r="G29" s="36" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1434,11 +1434,11 @@
         <f t="shared" si="2"/>
         <v>42744</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="40"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="36"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
@@ -1448,11 +1448,11 @@
         <f t="shared" si="2"/>
         <v>42751</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="40"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="36"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
@@ -1462,11 +1462,11 @@
         <f t="shared" si="2"/>
         <v>42758</v>
       </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="40"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="36"/>
     </row>
     <row r="33" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
@@ -1476,13 +1476,13 @@
         <f t="shared" si="2"/>
         <v>42765</v>
       </c>
-      <c r="C33" s="40"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="40"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="36"/>
       <c r="H33" s="2" t="s">
         <v>61</v>
       </c>
@@ -1495,13 +1495,13 @@
         <f t="shared" si="2"/>
         <v>42772</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
       <c r="H34" s="26" t="s">
         <v>63</v>
       </c>
@@ -1515,19 +1515,19 @@
         <f t="shared" si="2"/>
         <v>42779</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="40" t="s">
+      <c r="D35" s="36" t="s">
         <v>57</v>
       </c>
       <c r="E35" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="36" t="s">
+      <c r="F35" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="G35" s="41" t="s">
+      <c r="G35" s="42" t="s">
         <v>59</v>
       </c>
       <c r="H35" s="23" t="s">
@@ -1543,13 +1543,13 @@
         <f t="shared" si="2"/>
         <v>42786</v>
       </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="36" t="s">
+      <c r="C36" s="37"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F36" s="36"/>
-      <c r="G36" s="41"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="42"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
@@ -1562,12 +1562,12 @@
       <c r="C37" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="40"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36" t="s">
+      <c r="D37" s="36"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="41"/>
+      <c r="G37" s="42"/>
       <c r="H37" t="s">
         <v>60</v>
       </c>
@@ -1583,10 +1583,10 @@
       <c r="C38" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="38"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="41"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="42"/>
       <c r="H38" t="s">
         <v>46</v>
       </c>
@@ -1599,7 +1599,7 @@
         <f t="shared" si="2"/>
         <v>42807</v>
       </c>
-      <c r="C39" s="40" t="s">
+      <c r="C39" s="36" t="s">
         <v>86</v>
       </c>
       <c r="D39" s="25" t="s">
@@ -1608,8 +1608,8 @@
       <c r="E39" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="F39" s="39"/>
-      <c r="G39" s="41"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="42"/>
       <c r="H39" s="32" t="s">
         <v>80</v>
       </c>
@@ -1622,17 +1622,17 @@
         <f t="shared" si="2"/>
         <v>42814</v>
       </c>
-      <c r="C40" s="40"/>
-      <c r="D40" s="45" t="s">
+      <c r="C40" s="36"/>
+      <c r="D40" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="39" t="s">
+      <c r="E40" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="F40" s="39" t="s">
+      <c r="F40" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="G40" s="41"/>
+      <c r="G40" s="42"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
@@ -1642,13 +1642,13 @@
         <f t="shared" si="2"/>
         <v>42821</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="41"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="42"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
@@ -1658,15 +1658,15 @@
         <f t="shared" si="2"/>
         <v>42828</v>
       </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="36" t="s">
+      <c r="C42" s="44"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="F42" s="36" t="s">
+      <c r="F42" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="G42" s="41"/>
+      <c r="G42" s="42"/>
       <c r="H42" s="32" t="s">
         <v>81</v>
       </c>
@@ -1679,10 +1679,10 @@
         <f t="shared" si="2"/>
         <v>42835</v>
       </c>
-      <c r="C43" s="38"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
       <c r="G43" s="24"/>
       <c r="H43" s="2" t="s">
         <v>68</v>
@@ -1696,12 +1696,12 @@
         <f t="shared" si="2"/>
         <v>42842</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="40"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
       <c r="G44" s="24"/>
       <c r="H44" s="2"/>
     </row>
@@ -1713,10 +1713,10 @@
         <f t="shared" si="2"/>
         <v>42849</v>
       </c>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
       <c r="G45" s="24"/>
       <c r="H45" s="26" t="s">
         <v>64</v>
@@ -1733,11 +1733,11 @@
       <c r="C46" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="40"/>
-      <c r="E46" s="47" t="s">
+      <c r="D46" s="36"/>
+      <c r="E46" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="F46" s="39"/>
+      <c r="F46" s="38"/>
       <c r="G46" s="24"/>
       <c r="H46" s="31" t="s">
         <v>79</v>
@@ -1751,14 +1751,14 @@
         <f t="shared" si="2"/>
         <v>42863</v>
       </c>
-      <c r="C47" s="40" t="s">
+      <c r="C47" s="36" t="s">
         <v>89</v>
       </c>
       <c r="D47" s="29"/>
-      <c r="E47" s="36" t="s">
+      <c r="E47" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="F47" s="36"/>
+      <c r="F47" s="37"/>
       <c r="G47" s="28"/>
       <c r="H47" s="26"/>
     </row>
@@ -1770,10 +1770,10 @@
         <f t="shared" si="2"/>
         <v>42870</v>
       </c>
-      <c r="C48" s="40"/>
+      <c r="C48" s="36"/>
       <c r="D48" s="29"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
       <c r="G48" s="28"/>
       <c r="H48" s="26"/>
     </row>
@@ -1785,11 +1785,11 @@
         <f t="shared" si="2"/>
         <v>42877</v>
       </c>
-      <c r="C49" s="40" t="s">
+      <c r="C49" s="36" t="s">
         <v>71</v>
       </c>
       <c r="D49" s="29"/>
-      <c r="E49" s="36" t="s">
+      <c r="E49" s="37" t="s">
         <v>84</v>
       </c>
       <c r="F49" s="8"/>
@@ -1804,9 +1804,9 @@
         <f t="shared" si="2"/>
         <v>42884</v>
       </c>
-      <c r="C50" s="40"/>
+      <c r="C50" s="36"/>
       <c r="D50" s="29"/>
-      <c r="E50" s="36"/>
+      <c r="E50" s="37"/>
       <c r="F50" s="8"/>
       <c r="G50" s="28"/>
       <c r="H50" s="26"/>
@@ -1819,9 +1819,9 @@
         <f t="shared" si="2"/>
         <v>42891</v>
       </c>
-      <c r="C51" s="40"/>
+      <c r="C51" s="36"/>
       <c r="D51" s="29"/>
-      <c r="E51" s="36"/>
+      <c r="E51" s="37"/>
       <c r="F51" s="8"/>
       <c r="G51" s="28"/>
       <c r="H51" s="26"/>
@@ -1855,11 +1855,11 @@
         <f t="shared" si="2"/>
         <v>42905</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="37" t="s">
         <v>73</v>
       </c>
       <c r="D53" s="29"/>
-      <c r="E53" s="36" t="s">
+      <c r="E53" s="37" t="s">
         <v>73</v>
       </c>
       <c r="F53" s="8"/>
@@ -1874,9 +1874,9 @@
         <f t="shared" si="2"/>
         <v>42912</v>
       </c>
-      <c r="C54" s="39"/>
+      <c r="C54" s="38"/>
       <c r="D54" s="29"/>
-      <c r="E54" s="39"/>
+      <c r="E54" s="38"/>
       <c r="F54" s="8"/>
       <c r="G54" s="28"/>
       <c r="H54" s="26"/>
@@ -1894,7 +1894,7 @@
       </c>
       <c r="D55" s="29"/>
       <c r="E55" s="8"/>
-      <c r="F55" s="36" t="s">
+      <c r="F55" s="37" t="s">
         <v>75</v>
       </c>
       <c r="G55" s="28"/>
@@ -1910,12 +1910,12 @@
         <f t="shared" si="2"/>
         <v>42926</v>
       </c>
-      <c r="C56" s="43" t="s">
+      <c r="C56" s="39" t="s">
         <v>76</v>
       </c>
       <c r="D56" s="29"/>
       <c r="E56" s="30"/>
-      <c r="F56" s="39"/>
+      <c r="F56" s="38"/>
       <c r="G56" s="28"/>
       <c r="H56" s="26"/>
     </row>
@@ -1927,12 +1927,12 @@
         <f t="shared" si="2"/>
         <v>42933</v>
       </c>
-      <c r="C57" s="40"/>
+      <c r="C57" s="36"/>
       <c r="D57" s="29"/>
-      <c r="E57" s="36" t="s">
+      <c r="E57" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="F57" s="36"/>
+      <c r="F57" s="37"/>
       <c r="G57" s="28"/>
       <c r="H57" s="26"/>
     </row>
@@ -1944,10 +1944,10 @@
         <f t="shared" si="2"/>
         <v>42940</v>
       </c>
-      <c r="C58" s="40"/>
+      <c r="C58" s="36"/>
       <c r="D58" s="29"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
       <c r="G58" s="28"/>
       <c r="H58" s="26"/>
     </row>
@@ -1959,12 +1959,12 @@
         <f t="shared" si="2"/>
         <v>42947</v>
       </c>
-      <c r="C59" s="40"/>
+      <c r="C59" s="36"/>
       <c r="D59" s="29"/>
-      <c r="E59" s="36" t="s">
+      <c r="E59" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F59" s="36"/>
+      <c r="F59" s="37"/>
       <c r="G59" s="28"/>
       <c r="H59" s="26"/>
     </row>
@@ -1976,10 +1976,10 @@
         <f t="shared" si="2"/>
         <v>42954</v>
       </c>
-      <c r="C60" s="40"/>
+      <c r="C60" s="36"/>
       <c r="D60" s="29"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
       <c r="G60" s="28"/>
       <c r="H60" s="26" t="s">
         <v>84</v>
@@ -2002,12 +2002,40 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E47:F48"/>
-    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="E57:F58"/>
+    <mergeCell ref="G5:G10"/>
+    <mergeCell ref="F12:F27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G13:G21"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D24:D27"/>
     <mergeCell ref="C56:C60"/>
     <mergeCell ref="E59:F60"/>
     <mergeCell ref="D29:D32"/>
@@ -2024,40 +2052,12 @@
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="C41:C43"/>
     <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G13:G21"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E57:F58"/>
-    <mergeCell ref="G5:G10"/>
-    <mergeCell ref="F12:F27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E47:F48"/>
+    <mergeCell ref="E49:E51"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C56" r:id="rId1" location="T118_F11063:8283_x405158_y123863_s15_b4"/>
